--- a/files/ApplicationList.xlsx
+++ b/files/ApplicationList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>Rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UCSD=USC=UTA&gt;Columbia&gt;Virginia=UCDavis=UCI&gt;NYU=RPI&gt;ASU&gt;NCSU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,10 +268,6 @@
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCSD=USC=UTA&gt;CU&gt;VT=UCD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -681,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -724,7 +716,7 @@
         <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -756,7 +748,7 @@
         <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -788,7 +780,7 @@
         <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -820,7 +812,7 @@
         <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -852,7 +844,7 @@
         <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -884,7 +876,7 @@
         <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -913,10 +905,10 @@
         <v>46</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -948,7 +940,7 @@
         <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -980,7 +972,7 @@
         <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1012,7 +1004,7 @@
         <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1044,7 +1036,7 @@
         <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1076,21 +1068,11 @@
         <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
